--- a/CashFlow/ILMN_cashflow.xlsx
+++ b/CashFlow/ILMN_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1586000000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1606000000.0</v>
+        <v>-12000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1292000000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>880000000.0</v>
+        <v>-14000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>435000000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>25000000.0</v>
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>48000000.0</v>
+        <v>661000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40000000.0</v>
+        <v>613000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>35000000.0</v>
+        <v>458000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>30000000.0</v>
+        <v>308000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>10000000.0</v>
+        <v>156000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-44000000.0</v>
